--- a/OpsAndMats/M259A_260A.xlsx
+++ b/OpsAndMats/M259A_260A.xlsx
@@ -500,7 +500,7 @@
     <t>9900004</t>
   </si>
   <si>
-    <t>9070140-316</t>
+    <t>9070140-187</t>
   </si>
   <si>
     <t>9190030-1</t>
